--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -7,17 +7,17 @@
   </bookViews>
   <sheets>
     <sheet name="Group 1 Course 1" r:id="rId3" sheetId="1"/>
-    <sheet name="Group 2 Course 1" r:id="rId4" sheetId="2"/>
-    <sheet name="Group 3 Course 1" r:id="rId5" sheetId="3"/>
-    <sheet name="Group 1 Course 2" r:id="rId6" sheetId="4"/>
+    <sheet name="Group 1 Course 2" r:id="rId4" sheetId="2"/>
+    <sheet name="Group 1 Course 3" r:id="rId5" sheetId="3"/>
+    <sheet name="Group 2 Course 1" r:id="rId6" sheetId="4"/>
     <sheet name="Group 2 Course 2" r:id="rId7" sheetId="5"/>
-    <sheet name="Group 3 Course 2" r:id="rId8" sheetId="6"/>
-    <sheet name="Group 1 Course 3" r:id="rId9" sheetId="7"/>
-    <sheet name="Group 2 Course 3" r:id="rId10" sheetId="8"/>
+    <sheet name="Group 2 Course 3" r:id="rId8" sheetId="6"/>
+    <sheet name="Group 3 Course 1" r:id="rId9" sheetId="7"/>
+    <sheet name="Group 3 Course 2" r:id="rId10" sheetId="8"/>
     <sheet name="Group 3 Course 3" r:id="rId11" sheetId="9"/>
-    <sheet name="Group 1 Course 4" r:id="rId12" sheetId="10"/>
-    <sheet name="Group 2 Course 4" r:id="rId13" sheetId="11"/>
-    <sheet name="Group 3 Course 4" r:id="rId14" sheetId="12"/>
+    <sheet name="Group 4 Course 1" r:id="rId12" sheetId="10"/>
+    <sheet name="Group 4 Course 2" r:id="rId13" sheetId="11"/>
+    <sheet name="Group 4 Course 3" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
@@ -131,10 +131,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>95.0</v>
+        <v>78.0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -148,10 +148,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>93.0</v>
+        <v>85.0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -165,10 +165,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -182,10 +182,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -199,10 +199,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>96.0</v>
+        <v>88.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -216,10 +216,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -233,10 +233,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -250,10 +250,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="D9" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -267,10 +267,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="D10" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -284,10 +284,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -301,10 +301,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -318,10 +318,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -365,10 +365,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>50.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -382,10 +382,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>47.0</v>
+        <v>76.0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -399,10 +399,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>32.0</v>
+        <v>52.0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -416,10 +416,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0</v>
+        <v>49.0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -433,10 +433,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>14.0</v>
+        <v>34.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>89.0</v>
+        <v>31.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -467,10 +467,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>65.0</v>
+        <v>28.0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -484,10 +484,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>83.0</v>
+        <v>13.0</v>
       </c>
       <c r="D9" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -501,10 +501,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>59.0</v>
+        <v>88.0</v>
       </c>
       <c r="D10" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -518,10 +518,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>45.0</v>
+        <v>64.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -535,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0</v>
+        <v>82.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>27.0</v>
+        <v>58.0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -569,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>12.0</v>
+        <v>44.0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -586,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>87.0</v>
+        <v>29.0</v>
       </c>
       <c r="D15" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -603,10 +603,10 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>63.0</v>
+        <v>14.0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>60.0</v>
+        <v>89.0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -637,10 +637,10 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>46.0</v>
+        <v>65.0</v>
       </c>
       <c r="D18" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -654,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>31.0</v>
+        <v>83.0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -671,10 +671,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>28.0</v>
+        <v>59.0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -688,10 +688,10 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>13.0</v>
+        <v>45.0</v>
       </c>
       <c r="D21" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -705,10 +705,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>88.0</v>
+        <v>30.0</v>
       </c>
       <c r="D22" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -722,10 +722,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -739,10 +739,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>82.0</v>
+        <v>12.0</v>
       </c>
       <c r="D24" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>58.0</v>
+        <v>87.0</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -803,10 +803,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>44.0</v>
+        <v>63.0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -820,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>29.0</v>
+        <v>60.0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -837,10 +837,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0</v>
+        <v>46.0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -854,10 +854,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>89.0</v>
+        <v>31.0</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>65.0</v>
+        <v>28.0</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -888,10 +888,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>83.0</v>
+        <v>13.0</v>
       </c>
       <c r="D8" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -905,10 +905,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>59.0</v>
+        <v>88.0</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -922,10 +922,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>45.0</v>
+        <v>64.0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -939,10 +939,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0</v>
+        <v>82.0</v>
       </c>
       <c r="D11" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -956,10 +956,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0</v>
+        <v>58.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>12.0</v>
+        <v>44.0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -990,10 +990,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>87.0</v>
+        <v>29.0</v>
       </c>
       <c r="D14" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -1007,10 +1007,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>63.0</v>
+        <v>14.0</v>
       </c>
       <c r="D15" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -1024,10 +1024,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>60.0</v>
+        <v>89.0</v>
       </c>
       <c r="D16" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1041,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>46.0</v>
+        <v>65.0</v>
       </c>
       <c r="D17" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1058,10 +1058,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>31.0</v>
+        <v>83.0</v>
       </c>
       <c r="D18" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -1075,10 +1075,10 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>28.0</v>
+        <v>59.0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1092,10 +1092,10 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>13.0</v>
+        <v>45.0</v>
       </c>
       <c r="D20" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>88.0</v>
+        <v>30.0</v>
       </c>
       <c r="D21" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -1126,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="D22" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>82.0</v>
+        <v>12.0</v>
       </c>
       <c r="D23" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -1160,10 +1160,10 @@
         <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>58.0</v>
+        <v>87.0</v>
       </c>
       <c r="D24" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1207,10 +1207,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>44.0</v>
+        <v>63.0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1224,10 +1224,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>29.0</v>
+        <v>60.0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>14.0</v>
+        <v>46.0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1258,10 +1258,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>89.0</v>
+        <v>31.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1275,10 +1275,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>65.0</v>
+        <v>28.0</v>
       </c>
       <c r="D6" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1292,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>83.0</v>
+        <v>13.0</v>
       </c>
       <c r="D7" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1309,10 +1309,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>59.0</v>
+        <v>88.0</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1326,10 +1326,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>45.0</v>
+        <v>64.0</v>
       </c>
       <c r="D9" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1343,10 +1343,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0</v>
+        <v>82.0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1360,10 +1360,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0</v>
+        <v>58.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1377,10 +1377,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>12.0</v>
+        <v>44.0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1394,10 +1394,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>87.0</v>
+        <v>29.0</v>
       </c>
       <c r="D13" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1411,10 +1411,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>63.0</v>
+        <v>14.0</v>
       </c>
       <c r="D14" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -1428,10 +1428,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>60.0</v>
+        <v>89.0</v>
       </c>
       <c r="D15" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -1445,10 +1445,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>46.0</v>
+        <v>65.0</v>
       </c>
       <c r="D16" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1462,10 +1462,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>31.0</v>
+        <v>83.0</v>
       </c>
       <c r="D17" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1479,10 +1479,10 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>28.0</v>
+        <v>59.0</v>
       </c>
       <c r="D18" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -1496,10 +1496,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>13.0</v>
+        <v>45.0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>88.0</v>
+        <v>30.0</v>
       </c>
       <c r="D20" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -1530,10 +1530,10 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="D21" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -1547,10 +1547,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>82.0</v>
+        <v>12.0</v>
       </c>
       <c r="D22" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1564,10 +1564,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>58.0</v>
+        <v>87.0</v>
       </c>
       <c r="D23" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -1581,10 +1581,10 @@
         <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>44.0</v>
+        <v>63.0</v>
       </c>
       <c r="D24" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1628,10 +1628,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1645,10 +1645,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>96.0</v>
+        <v>88.0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1662,10 +1662,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1679,10 +1679,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1696,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1730,10 +1730,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
       <c r="D8" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1747,10 +1747,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1764,10 +1764,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1781,10 +1781,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="D11" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1798,10 +1798,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>96.0</v>
+        <v>88.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1862,10 +1862,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1879,10 +1879,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1896,10 +1896,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1930,10 +1930,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="D6" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1947,10 +1947,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="D7" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1964,10 +1964,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1981,10 +1981,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>96.0</v>
+        <v>88.0</v>
       </c>
       <c r="D9" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1998,10 +1998,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -2015,10 +2015,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2032,10 +2032,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2049,10 +2049,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="D13" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2096,10 +2096,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2113,10 +2113,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2130,10 +2130,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2147,10 +2147,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2164,10 +2164,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2181,10 +2181,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2198,10 +2198,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2215,10 +2215,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D9" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D10" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -2249,10 +2249,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2266,10 +2266,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2283,10 +2283,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2300,10 +2300,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2317,10 +2317,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D15" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -2364,10 +2364,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2381,10 +2381,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2398,10 +2398,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2415,10 +2415,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2432,10 +2432,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2449,10 +2449,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2466,10 +2466,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D8" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2483,10 +2483,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2500,10 +2500,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -2517,10 +2517,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D11" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2534,10 +2534,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2551,10 +2551,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2568,10 +2568,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D14" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D15" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -2632,10 +2632,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2649,10 +2649,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2666,10 +2666,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2683,10 +2683,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2700,10 +2700,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D6" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2717,10 +2717,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D7" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2734,10 +2734,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2751,10 +2751,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D9" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2768,10 +2768,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -2785,10 +2785,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2802,10 +2802,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2819,10 +2819,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D13" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2836,10 +2836,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D14" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2853,10 +2853,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D15" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -2900,10 +2900,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2917,10 +2917,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2934,10 +2934,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2951,10 +2951,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2968,10 +2968,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3002,10 +3002,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3019,10 +3019,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D9" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3036,10 +3036,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
       <c r="D10" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3053,10 +3053,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3070,10 +3070,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3087,10 +3087,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3104,10 +3104,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D15" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3138,10 +3138,10 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3155,10 +3155,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3172,10 +3172,10 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D18" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -3189,10 +3189,10 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3206,10 +3206,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -3223,10 +3223,10 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D21" t="n">
-        <v>7.0</v>
+        <v>49185.0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -3270,10 +3270,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -3287,10 +3287,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -3304,10 +3304,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3321,10 +3321,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3338,10 +3338,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -3355,10 +3355,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3372,10 +3372,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
       <c r="D8" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3389,10 +3389,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3406,10 +3406,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3423,10 +3423,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D11" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3440,10 +3440,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3457,10 +3457,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3474,10 +3474,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
       <c r="D14" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3491,10 +3491,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="D15" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3508,10 +3508,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D16" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3525,10 +3525,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D17" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3542,10 +3542,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D18" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -3559,10 +3559,10 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3576,10 +3576,10 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
       <c r="D20" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -3593,10 +3593,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="D21" t="n">
-        <v>15.0</v>
+        <v>49187.0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -3640,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -3657,10 +3657,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -3674,10 +3674,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3691,10 +3691,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3708,10 +3708,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
       <c r="D6" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -3725,10 +3725,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="D7" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3742,10 +3742,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3759,10 +3759,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D9" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3776,10 +3776,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3793,10 +3793,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3810,10 +3810,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3827,10 +3827,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="D13" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3844,10 +3844,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D14" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3861,10 +3861,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D15" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3878,10 +3878,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D16" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3895,10 +3895,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D17" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3912,10 +3912,10 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
       <c r="D18" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -3929,10 +3929,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3946,10 +3946,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D20" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -3963,10 +3963,10 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D21" t="n">
-        <v>23.0</v>
+        <v>49191.0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="12">
   <si>
     <t>Student ID</t>
   </si>
@@ -40,7 +40,10 @@
     <t>Attendance</t>
   </si>
   <si>
-    <t>Sochinenie</t>
+    <t>Essay</t>
+  </si>
+  <si>
+    <t>No result for this</t>
   </si>
   <si>
     <t>Lecture</t>
@@ -130,8 +133,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>78.0</v>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49185.0</v>
@@ -145,10 +148,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>85.0</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>49185.0</v>
@@ -162,10 +165,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>92.0</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>49185.0</v>
@@ -179,10 +182,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>90.0</v>
+        <v>94.0</v>
       </c>
       <c r="D5" t="n">
         <v>49185.0</v>
@@ -196,10 +199,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="D6" t="n">
         <v>49185.0</v>
@@ -215,8 +218,8 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>95.0</v>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>49185.0</v>
@@ -230,10 +233,10 @@
         <v>6.0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>93.0</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>49185.0</v>
@@ -247,10 +250,10 @@
         <v>7.0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>91.0</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>49185.0</v>
@@ -264,10 +267,10 @@
         <v>8.0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
@@ -281,10 +284,10 @@
         <v>9.0</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>96.0</v>
+        <v>91.0</v>
       </c>
       <c r="D11" t="n">
         <v>49185.0</v>
@@ -300,8 +303,8 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>94.0</v>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>49185.0</v>
@@ -315,10 +318,10 @@
         <v>11.0</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>92.0</v>
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49185.0</v>
@@ -364,8 +367,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49185.0</v>
@@ -379,10 +382,10 @@
         <v>57.0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>76.0</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>49185.0</v>
@@ -396,10 +399,10 @@
         <v>64.0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>52.0</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>49185.0</v>
@@ -413,16 +416,16 @@
         <v>71.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
         <v>49185.0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -430,10 +433,10 @@
         <v>78.0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>34.0</v>
+        <v>88.0</v>
       </c>
       <c r="D6" t="n">
         <v>49185.0</v>
@@ -449,8 +452,8 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>31.0</v>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>49185.0</v>
@@ -464,10 +467,10 @@
         <v>92.0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>28.0</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>49185.0</v>
@@ -481,10 +484,10 @@
         <v>99.0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13.0</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>49185.0</v>
@@ -498,10 +501,10 @@
         <v>106.0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>88.0</v>
+        <v>44.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
@@ -515,10 +518,10 @@
         <v>113.0</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>64.0</v>
+        <v>29.0</v>
       </c>
       <c r="D11" t="n">
         <v>49185.0</v>
@@ -534,8 +537,8 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>82.0</v>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>49185.0</v>
@@ -549,10 +552,10 @@
         <v>127.0</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>58.0</v>
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49185.0</v>
@@ -566,10 +569,10 @@
         <v>134.0</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>44.0</v>
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>49185.0</v>
@@ -583,10 +586,10 @@
         <v>141.0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>29.0</v>
+        <v>83.0</v>
       </c>
       <c r="D15" t="n">
         <v>49185.0</v>
@@ -600,16 +603,16 @@
         <v>148.0</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" t="n">
         <v>49185.0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -619,8 +622,8 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>89.0</v>
+      <c r="C17" t="s">
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>49185.0</v>
@@ -634,10 +637,10 @@
         <v>162.0</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>65.0</v>
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>49185.0</v>
@@ -651,10 +654,10 @@
         <v>169.0</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>83.0</v>
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>49185.0</v>
@@ -668,10 +671,10 @@
         <v>176.0</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>59.0</v>
+        <v>12.0</v>
       </c>
       <c r="D20" t="n">
         <v>49185.0</v>
@@ -685,10 +688,10 @@
         <v>183.0</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>45.0</v>
+        <v>87.0</v>
       </c>
       <c r="D21" t="n">
         <v>49185.0</v>
@@ -704,8 +707,8 @@
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="n">
-        <v>30.0</v>
+      <c r="C22" t="s">
+        <v>6</v>
       </c>
       <c r="D22" t="n">
         <v>49185.0</v>
@@ -719,10 +722,10 @@
         <v>197.0</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="n">
-        <v>27.0</v>
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
       </c>
       <c r="D23" t="n">
         <v>49185.0</v>
@@ -736,10 +739,10 @@
         <v>204.0</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>12.0</v>
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>49185.0</v>
@@ -783,16 +786,16 @@
         <v>50.0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>87.0</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49187.0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -800,16 +803,16 @@
         <v>57.0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>63.0</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>49187.0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +820,10 @@
         <v>64.0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>60.0</v>
+        <v>13.0</v>
       </c>
       <c r="D4" t="n">
         <v>49187.0</v>
@@ -834,10 +837,10 @@
         <v>71.0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>46.0</v>
+        <v>88.0</v>
       </c>
       <c r="D5" t="n">
         <v>49187.0</v>
@@ -851,10 +854,10 @@
         <v>78.0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0</v>
+        <v>64.0</v>
       </c>
       <c r="D6" t="n">
         <v>49187.0</v>
@@ -868,10 +871,10 @@
         <v>85.0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>28.0</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>49187.0</v>
@@ -885,10 +888,10 @@
         <v>92.0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13.0</v>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>49187.0</v>
@@ -902,10 +905,10 @@
         <v>99.0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>88.0</v>
+        <v>44.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
@@ -919,10 +922,10 @@
         <v>106.0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>64.0</v>
+        <v>29.0</v>
       </c>
       <c r="D10" t="n">
         <v>49187.0</v>
@@ -936,10 +939,10 @@
         <v>113.0</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>82.0</v>
+        <v>14.0</v>
       </c>
       <c r="D11" t="n">
         <v>49187.0</v>
@@ -953,10 +956,10 @@
         <v>120.0</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>58.0</v>
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>49187.0</v>
@@ -970,10 +973,10 @@
         <v>127.0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>44.0</v>
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49187.0</v>
@@ -987,10 +990,10 @@
         <v>134.0</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>29.0</v>
+        <v>83.0</v>
       </c>
       <c r="D14" t="n">
         <v>49187.0</v>
@@ -1004,10 +1007,10 @@
         <v>141.0</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0</v>
+        <v>59.0</v>
       </c>
       <c r="D15" t="n">
         <v>49187.0</v>
@@ -1021,10 +1024,10 @@
         <v>148.0</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>89.0</v>
+        <v>45.0</v>
       </c>
       <c r="D16" t="n">
         <v>49187.0</v>
@@ -1038,10 +1041,10 @@
         <v>155.0</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>65.0</v>
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>49187.0</v>
@@ -1055,10 +1058,10 @@
         <v>162.0</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>83.0</v>
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>49187.0</v>
@@ -1072,10 +1075,10 @@
         <v>169.0</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>59.0</v>
+        <v>12.0</v>
       </c>
       <c r="D19" t="n">
         <v>49187.0</v>
@@ -1089,10 +1092,10 @@
         <v>176.0</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>45.0</v>
+        <v>87.0</v>
       </c>
       <c r="D20" t="n">
         <v>49187.0</v>
@@ -1106,10 +1109,10 @@
         <v>183.0</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>30.0</v>
+        <v>63.0</v>
       </c>
       <c r="D21" t="n">
         <v>49187.0</v>
@@ -1123,10 +1126,10 @@
         <v>190.0</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="n">
-        <v>27.0</v>
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
       </c>
       <c r="D22" t="n">
         <v>49187.0</v>
@@ -1140,10 +1143,10 @@
         <v>197.0</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>12.0</v>
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
       </c>
       <c r="D23" t="n">
         <v>49187.0</v>
@@ -1157,10 +1160,10 @@
         <v>204.0</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>87.0</v>
+        <v>31.0</v>
       </c>
       <c r="D24" t="n">
         <v>49187.0</v>
@@ -1204,10 +1207,10 @@
         <v>50.0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>63.0</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49191.0</v>
@@ -1221,10 +1224,10 @@
         <v>57.0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>60.0</v>
+        <v>13.0</v>
       </c>
       <c r="D3" t="n">
         <v>49191.0</v>
@@ -1238,16 +1241,16 @@
         <v>64.0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>49191.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1255,16 +1258,16 @@
         <v>71.0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>31.0</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>49191.0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1272,10 +1275,10 @@
         <v>78.0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28.0</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>49191.0</v>
@@ -1289,10 +1292,10 @@
         <v>85.0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>13.0</v>
+        <v>58.0</v>
       </c>
       <c r="D7" t="n">
         <v>49191.0</v>
@@ -1306,10 +1309,10 @@
         <v>92.0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>88.0</v>
+        <v>44.0</v>
       </c>
       <c r="D8" t="n">
         <v>49191.0</v>
@@ -1323,10 +1326,10 @@
         <v>99.0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>64.0</v>
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>49191.0</v>
@@ -1340,10 +1343,10 @@
         <v>106.0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>82.0</v>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>49191.0</v>
@@ -1357,10 +1360,10 @@
         <v>113.0</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>58.0</v>
+        <v>89.0</v>
       </c>
       <c r="D11" t="n">
         <v>49191.0</v>
@@ -1374,10 +1377,10 @@
         <v>120.0</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>44.0</v>
+        <v>65.0</v>
       </c>
       <c r="D12" t="n">
         <v>49191.0</v>
@@ -1391,10 +1394,10 @@
         <v>127.0</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>29.0</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49191.0</v>
@@ -1408,10 +1411,10 @@
         <v>134.0</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14.0</v>
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>49191.0</v>
@@ -1425,10 +1428,10 @@
         <v>141.0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>89.0</v>
+        <v>45.0</v>
       </c>
       <c r="D15" t="n">
         <v>49191.0</v>
@@ -1442,10 +1445,10 @@
         <v>148.0</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>65.0</v>
+        <v>30.0</v>
       </c>
       <c r="D16" t="n">
         <v>49191.0</v>
@@ -1459,16 +1462,16 @@
         <v>155.0</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>83.0</v>
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>49191.0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1476,10 +1479,10 @@
         <v>162.0</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>59.0</v>
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>49191.0</v>
@@ -1493,10 +1496,10 @@
         <v>169.0</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>45.0</v>
+        <v>87.0</v>
       </c>
       <c r="D19" t="n">
         <v>49191.0</v>
@@ -1510,10 +1513,10 @@
         <v>176.0</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>30.0</v>
+        <v>63.0</v>
       </c>
       <c r="D20" t="n">
         <v>49191.0</v>
@@ -1527,10 +1530,10 @@
         <v>183.0</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>27.0</v>
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>49191.0</v>
@@ -1544,10 +1547,10 @@
         <v>190.0</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12.0</v>
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
       </c>
       <c r="D22" t="n">
         <v>49191.0</v>
@@ -1561,10 +1564,10 @@
         <v>197.0</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>87.0</v>
+        <v>31.0</v>
       </c>
       <c r="D23" t="n">
         <v>49191.0</v>
@@ -1578,10 +1581,10 @@
         <v>204.0</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>63.0</v>
+        <v>28.0</v>
       </c>
       <c r="D24" t="n">
         <v>49191.0</v>
@@ -1625,10 +1628,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>90.0</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49187.0</v>
@@ -1642,10 +1645,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>88.0</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>49187.0</v>
@@ -1659,10 +1662,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>95.0</v>
+        <v>90.0</v>
       </c>
       <c r="D4" t="n">
         <v>49187.0</v>
@@ -1676,10 +1679,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>93.0</v>
+        <v>88.0</v>
       </c>
       <c r="D5" t="n">
         <v>49187.0</v>
@@ -1693,10 +1696,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="D6" t="n">
         <v>49187.0</v>
@@ -1710,10 +1713,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>89.0</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>49187.0</v>
@@ -1727,10 +1730,10 @@
         <v>6.0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>96.0</v>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>49187.0</v>
@@ -1744,10 +1747,10 @@
         <v>7.0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>94.0</v>
+        <v>89.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
@@ -1761,10 +1764,10 @@
         <v>8.0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>92.0</v>
+        <v>96.0</v>
       </c>
       <c r="D10" t="n">
         <v>49187.0</v>
@@ -1778,10 +1781,10 @@
         <v>9.0</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>90.0</v>
+        <v>94.0</v>
       </c>
       <c r="D11" t="n">
         <v>49187.0</v>
@@ -1795,10 +1798,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>88.0</v>
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>49187.0</v>
@@ -1812,16 +1815,16 @@
         <v>11.0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>95.0</v>
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49187.0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1859,10 +1862,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>93.0</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49191.0</v>
@@ -1876,10 +1879,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="D3" t="n">
         <v>49191.0</v>
@@ -1893,10 +1896,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="D4" t="n">
         <v>49191.0</v>
@@ -1910,10 +1913,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>96.0</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>49191.0</v>
@@ -1927,10 +1930,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>94.0</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>49191.0</v>
@@ -1944,10 +1947,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>92.0</v>
+        <v>96.0</v>
       </c>
       <c r="D7" t="n">
         <v>49191.0</v>
@@ -1961,10 +1964,10 @@
         <v>6.0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>90.0</v>
+        <v>94.0</v>
       </c>
       <c r="D8" t="n">
         <v>49191.0</v>
@@ -1978,10 +1981,10 @@
         <v>7.0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>88.0</v>
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>49191.0</v>
@@ -1995,10 +1998,10 @@
         <v>8.0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>95.0</v>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>49191.0</v>
@@ -2012,10 +2015,10 @@
         <v>9.0</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>93.0</v>
+        <v>88.0</v>
       </c>
       <c r="D11" t="n">
         <v>49191.0</v>
@@ -2029,10 +2032,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="D12" t="n">
         <v>49191.0</v>
@@ -2046,10 +2049,10 @@
         <v>11.0</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>89.0</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49191.0</v>
@@ -2095,14 +2098,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>70.0</v>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49185.0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2110,10 +2113,10 @@
         <v>48.0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>67.0</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>49185.0</v>
@@ -2127,16 +2130,16 @@
         <v>72.0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>64.0</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>49185.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2144,10 +2147,10 @@
         <v>96.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D5" t="n">
         <v>49185.0</v>
@@ -2161,16 +2164,16 @@
         <v>120.0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>67.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
         <v>49185.0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2180,14 +2183,14 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>64.0</v>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>49185.0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2195,10 +2198,10 @@
         <v>168.0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>61.0</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>49185.0</v>
@@ -2212,10 +2215,10 @@
         <v>192.0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>67.0</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>49185.0</v>
@@ -2229,10 +2232,10 @@
         <v>216.0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
@@ -2246,10 +2249,10 @@
         <v>240.0</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D11" t="n">
         <v>49185.0</v>
@@ -2265,8 +2268,8 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>67.0</v>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>49185.0</v>
@@ -2280,10 +2283,10 @@
         <v>288.0</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>64.0</v>
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49185.0</v>
@@ -2297,10 +2300,10 @@
         <v>312.0</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>61.0</v>
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>49185.0</v>
@@ -2314,10 +2317,10 @@
         <v>336.0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D15" t="n">
         <v>49185.0</v>
@@ -2361,10 +2364,10 @@
         <v>24.0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>64.0</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49187.0</v>
@@ -2378,16 +2381,16 @@
         <v>48.0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>61.0</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>49187.0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2395,10 +2398,10 @@
         <v>72.0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D4" t="n">
         <v>49187.0</v>
@@ -2412,10 +2415,10 @@
         <v>96.0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D5" t="n">
         <v>49187.0</v>
@@ -2429,10 +2432,10 @@
         <v>120.0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D6" t="n">
         <v>49187.0</v>
@@ -2446,10 +2449,10 @@
         <v>144.0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>67.0</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>49187.0</v>
@@ -2463,10 +2466,10 @@
         <v>168.0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>64.0</v>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>49187.0</v>
@@ -2480,10 +2483,10 @@
         <v>192.0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
@@ -2497,10 +2500,10 @@
         <v>216.0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D10" t="n">
         <v>49187.0</v>
@@ -2514,10 +2517,10 @@
         <v>240.0</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D11" t="n">
         <v>49187.0</v>
@@ -2531,10 +2534,10 @@
         <v>264.0</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>61.0</v>
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>49187.0</v>
@@ -2548,10 +2551,10 @@
         <v>288.0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>67.0</v>
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49187.0</v>
@@ -2565,10 +2568,10 @@
         <v>312.0</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D14" t="n">
         <v>49187.0</v>
@@ -2582,10 +2585,10 @@
         <v>336.0</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D15" t="n">
         <v>49187.0</v>
@@ -2629,10 +2632,10 @@
         <v>24.0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>67.0</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49191.0</v>
@@ -2646,10 +2649,10 @@
         <v>48.0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D3" t="n">
         <v>49191.0</v>
@@ -2663,16 +2666,16 @@
         <v>72.0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>61.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>49191.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2680,16 +2683,16 @@
         <v>96.0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67.0</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>49191.0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2697,10 +2700,10 @@
         <v>120.0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>64.0</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>49191.0</v>
@@ -2714,10 +2717,10 @@
         <v>144.0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="D7" t="n">
         <v>49191.0</v>
@@ -2731,10 +2734,10 @@
         <v>168.0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D8" t="n">
         <v>49191.0</v>
@@ -2748,10 +2751,10 @@
         <v>192.0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>64.0</v>
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>49191.0</v>
@@ -2765,10 +2768,10 @@
         <v>216.0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>61.0</v>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>49191.0</v>
@@ -2782,10 +2785,10 @@
         <v>240.0</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="D11" t="n">
         <v>49191.0</v>
@@ -2799,10 +2802,10 @@
         <v>264.0</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D12" t="n">
         <v>49191.0</v>
@@ -2816,10 +2819,10 @@
         <v>288.0</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>61.0</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49191.0</v>
@@ -2833,10 +2836,10 @@
         <v>312.0</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>67.0</v>
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>49191.0</v>
@@ -2850,10 +2853,10 @@
         <v>336.0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D15" t="n">
         <v>49191.0</v>
@@ -2899,14 +2902,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>58.0</v>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49185.0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2914,16 +2917,16 @@
         <v>142.0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>49.0</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>49185.0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2931,16 +2934,16 @@
         <v>147.0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>47.0</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>49185.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2948,16 +2951,16 @@
         <v>152.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
         <v>49185.0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2965,16 +2968,16 @@
         <v>157.0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
         <v>49185.0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2984,8 +2987,8 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>41.0</v>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>49185.0</v>
@@ -2999,16 +3002,16 @@
         <v>167.0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>39.0</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>49185.0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3016,16 +3019,16 @@
         <v>172.0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>37.0</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>49185.0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3033,10 +3036,10 @@
         <v>177.0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
@@ -3050,16 +3053,16 @@
         <v>182.0</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
         <v>49185.0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3069,14 +3072,14 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>43.0</v>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>49185.0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3084,10 +3087,10 @@
         <v>192.0</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>41.0</v>
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49185.0</v>
@@ -3101,10 +3104,10 @@
         <v>197.0</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>39.0</v>
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>49185.0</v>
@@ -3118,10 +3121,10 @@
         <v>202.0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>37.0</v>
+        <v>53.0</v>
       </c>
       <c r="D15" t="n">
         <v>49185.0</v>
@@ -3135,10 +3138,10 @@
         <v>207.0</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
       <c r="D16" t="n">
         <v>49185.0</v>
@@ -3154,8 +3157,8 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>52.0</v>
+      <c r="C17" t="s">
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>49185.0</v>
@@ -3169,10 +3172,10 @@
         <v>217.0</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>43.0</v>
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>49185.0</v>
@@ -3186,10 +3189,10 @@
         <v>222.0</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>41.0</v>
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>49185.0</v>
@@ -3203,10 +3206,10 @@
         <v>227.0</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="D20" t="n">
         <v>49185.0</v>
@@ -3220,10 +3223,10 @@
         <v>232.0</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>37.0</v>
+        <v>53.0</v>
       </c>
       <c r="D21" t="n">
         <v>49185.0</v>
@@ -3267,16 +3270,16 @@
         <v>137.0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>35.0</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49187.0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3284,16 +3287,16 @@
         <v>142.0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>52.0</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>49187.0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3301,16 +3304,16 @@
         <v>147.0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>49187.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3318,16 +3321,16 @@
         <v>152.0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
         <v>49187.0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3335,16 +3338,16 @@
         <v>157.0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
         <v>49187.0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3352,16 +3355,16 @@
         <v>162.0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>37.0</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>49187.0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3369,10 +3372,10 @@
         <v>167.0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>35.0</v>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>49187.0</v>
@@ -3386,16 +3389,16 @@
         <v>172.0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3403,10 +3406,10 @@
         <v>177.0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="D10" t="n">
         <v>49187.0</v>
@@ -3420,10 +3423,10 @@
         <v>182.0</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="D11" t="n">
         <v>49187.0</v>
@@ -3437,10 +3440,10 @@
         <v>187.0</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>39.0</v>
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>49187.0</v>
@@ -3454,10 +3457,10 @@
         <v>192.0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>37.0</v>
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49187.0</v>
@@ -3471,10 +3474,10 @@
         <v>197.0</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
       <c r="D14" t="n">
         <v>49187.0</v>
@@ -3488,10 +3491,10 @@
         <v>202.0</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>52.0</v>
+        <v>42.0</v>
       </c>
       <c r="D15" t="n">
         <v>49187.0</v>
@@ -3505,10 +3508,10 @@
         <v>207.0</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="D16" t="n">
         <v>49187.0</v>
@@ -3522,10 +3525,10 @@
         <v>212.0</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>41.0</v>
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>49187.0</v>
@@ -3539,16 +3542,16 @@
         <v>217.0</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>39.0</v>
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>49187.0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3556,16 +3559,16 @@
         <v>222.0</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" t="n">
         <v>49187.0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3573,10 +3576,10 @@
         <v>227.0</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
       <c r="D20" t="n">
         <v>49187.0</v>
@@ -3590,10 +3593,10 @@
         <v>232.0</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>52.0</v>
+        <v>42.0</v>
       </c>
       <c r="D21" t="n">
         <v>49187.0</v>
@@ -3637,16 +3640,16 @@
         <v>137.0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>43.0</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>49191.0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3654,16 +3657,16 @@
         <v>142.0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
         <v>49191.0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3671,10 +3674,10 @@
         <v>147.0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="D4" t="n">
         <v>49191.0</v>
@@ -3688,16 +3691,16 @@
         <v>152.0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>37.0</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>49191.0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3705,16 +3708,16 @@
         <v>157.0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>35.0</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>49191.0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3722,16 +3725,16 @@
         <v>162.0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
         <v>49191.0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3739,16 +3742,16 @@
         <v>167.0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
         <v>49191.0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3756,10 +3759,10 @@
         <v>172.0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>41.0</v>
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>49191.0</v>
@@ -3773,16 +3776,16 @@
         <v>177.0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>39.0</v>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>49191.0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3790,10 +3793,10 @@
         <v>182.0</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>37.0</v>
+        <v>53.0</v>
       </c>
       <c r="D11" t="n">
         <v>49191.0</v>
@@ -3807,16 +3810,16 @@
         <v>187.0</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
         <v>49191.0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3824,10 +3827,10 @@
         <v>192.0</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>52.0</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>49191.0</v>
@@ -3841,10 +3844,10 @@
         <v>197.0</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>43.0</v>
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>49191.0</v>
@@ -3858,16 +3861,16 @@
         <v>202.0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" t="n">
         <v>49191.0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3875,16 +3878,16 @@
         <v>207.0</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" t="n">
         <v>49191.0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3892,10 +3895,10 @@
         <v>212.0</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>37.0</v>
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>49191.0</v>
@@ -3909,10 +3912,10 @@
         <v>217.0</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>35.0</v>
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>49191.0</v>
@@ -3926,10 +3929,10 @@
         <v>222.0</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>52.0</v>
+        <v>42.0</v>
       </c>
       <c r="D19" t="n">
         <v>49191.0</v>
@@ -3943,10 +3946,10 @@
         <v>227.0</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="D20" t="n">
         <v>49191.0</v>
@@ -3960,10 +3963,10 @@
         <v>232.0</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>41.0</v>
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>49191.0</v>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -185,7 +185,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>94.0</v>
+        <v>92.0</v>
       </c>
       <c r="D5" t="n">
         <v>49185.0</v>
@@ -202,7 +202,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>92.0</v>
+        <v>90.0</v>
       </c>
       <c r="D6" t="n">
         <v>49185.0</v>
@@ -270,7 +270,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>93.0</v>
+        <v>91.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
@@ -287,7 +287,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>91.0</v>
+        <v>89.0</v>
       </c>
       <c r="D11" t="n">
         <v>49185.0</v>
@@ -310,7 +310,7 @@
         <v>49185.0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -391,7 +391,7 @@
         <v>49185.0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>49185.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>88.0</v>
+        <v>28.0</v>
       </c>
       <c r="D6" t="n">
         <v>49185.0</v>
@@ -493,7 +493,7 @@
         <v>49185.0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>44.0</v>
+        <v>82.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>29.0</v>
+        <v>58.0</v>
       </c>
       <c r="D11" t="n">
         <v>49185.0</v>
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>83.0</v>
+        <v>89.0</v>
       </c>
       <c r="D15" t="n">
         <v>49185.0</v>
@@ -606,13 +606,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="D16" t="n">
         <v>49185.0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -674,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>12.0</v>
+        <v>30.0</v>
       </c>
       <c r="D20" t="n">
         <v>49185.0</v>
@@ -691,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>87.0</v>
+        <v>27.0</v>
       </c>
       <c r="D21" t="n">
         <v>49185.0</v>
@@ -795,7 +795,7 @@
         <v>49187.0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>49187.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>88.0</v>
+        <v>28.0</v>
       </c>
       <c r="D5" t="n">
         <v>49187.0</v>
@@ -857,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>64.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
         <v>49187.0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>44.0</v>
+        <v>82.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
@@ -925,13 +925,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" t="n">
         <v>49187.0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -942,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>14.0</v>
+        <v>44.0</v>
       </c>
       <c r="D11" t="n">
         <v>49187.0</v>
@@ -993,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>83.0</v>
+        <v>89.0</v>
       </c>
       <c r="D14" t="n">
         <v>49187.0</v>
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>59.0</v>
+        <v>65.0</v>
       </c>
       <c r="D15" t="n">
         <v>49187.0</v>
@@ -1027,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>45.0</v>
+        <v>83.0</v>
       </c>
       <c r="D16" t="n">
         <v>49187.0</v>
@@ -1078,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>12.0</v>
+        <v>30.0</v>
       </c>
       <c r="D19" t="n">
         <v>49187.0</v>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>87.0</v>
+        <v>27.0</v>
       </c>
       <c r="D20" t="n">
         <v>49187.0</v>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>63.0</v>
+        <v>12.0</v>
       </c>
       <c r="D21" t="n">
         <v>49187.0</v>
@@ -1163,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>31.0</v>
+        <v>60.0</v>
       </c>
       <c r="D24" t="n">
         <v>49187.0</v>
@@ -1216,7 +1216,7 @@
         <v>49191.0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1227,13 +1227,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
         <v>49191.0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1295,13 +1295,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>58.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
         <v>49191.0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1312,13 +1312,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
         <v>49191.0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1335,7 +1335,7 @@
         <v>49191.0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1352,7 +1352,7 @@
         <v>49191.0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1363,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>89.0</v>
+        <v>29.0</v>
       </c>
       <c r="D11" t="n">
         <v>49191.0</v>
@@ -1380,13 +1380,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
         <v>49191.0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1431,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>45.0</v>
+        <v>83.0</v>
       </c>
       <c r="D15" t="n">
         <v>49191.0</v>
@@ -1448,13 +1448,13 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" t="n">
         <v>49191.0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1471,7 +1471,7 @@
         <v>49191.0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1499,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>87.0</v>
+        <v>27.0</v>
       </c>
       <c r="D19" t="n">
         <v>49191.0</v>
@@ -1516,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>63.0</v>
+        <v>12.0</v>
       </c>
       <c r="D20" t="n">
         <v>49191.0</v>
@@ -1567,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>31.0</v>
+        <v>60.0</v>
       </c>
       <c r="D23" t="n">
         <v>49191.0</v>
@@ -1584,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>28.0</v>
+        <v>46.0</v>
       </c>
       <c r="D24" t="n">
         <v>49191.0</v>
@@ -1665,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>90.0</v>
+        <v>88.0</v>
       </c>
       <c r="D4" t="n">
         <v>49187.0</v>
@@ -1682,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>88.0</v>
+        <v>95.0</v>
       </c>
       <c r="D5" t="n">
         <v>49187.0</v>
@@ -1699,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>95.0</v>
+        <v>93.0</v>
       </c>
       <c r="D6" t="n">
         <v>49187.0</v>
@@ -1750,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>89.0</v>
+        <v>96.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>96.0</v>
+        <v>94.0</v>
       </c>
       <c r="D10" t="n">
         <v>49187.0</v>
@@ -1784,7 +1784,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>94.0</v>
+        <v>92.0</v>
       </c>
       <c r="D11" t="n">
         <v>49187.0</v>
@@ -1824,7 +1824,7 @@
         <v>49187.0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +1882,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>95.0</v>
+        <v>93.0</v>
       </c>
       <c r="D3" t="n">
         <v>49191.0</v>
@@ -1899,7 +1899,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>93.0</v>
+        <v>91.0</v>
       </c>
       <c r="D4" t="n">
         <v>49191.0</v>
@@ -1950,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>96.0</v>
+        <v>94.0</v>
       </c>
       <c r="D7" t="n">
         <v>49191.0</v>
@@ -1967,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>94.0</v>
+        <v>92.0</v>
       </c>
       <c r="D8" t="n">
         <v>49191.0</v>
@@ -2018,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>88.0</v>
+        <v>95.0</v>
       </c>
       <c r="D11" t="n">
         <v>49191.0</v>
@@ -2035,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>95.0</v>
+        <v>93.0</v>
       </c>
       <c r="D12" t="n">
         <v>49191.0</v>
@@ -2105,7 +2105,7 @@
         <v>49185.0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2122,7 +2122,7 @@
         <v>49185.0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2139,7 +2139,7 @@
         <v>49185.0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>64.0</v>
+        <v>61.0</v>
       </c>
       <c r="D5" t="n">
         <v>49185.0</v>
@@ -2167,13 +2167,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="D6" t="n">
         <v>49185.0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2235,13 +2235,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>67.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>64.0</v>
+        <v>61.0</v>
       </c>
       <c r="D11" t="n">
         <v>49185.0</v>
@@ -2320,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
       <c r="D15" t="n">
         <v>49185.0</v>
@@ -2373,7 +2373,7 @@
         <v>49187.0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2390,7 +2390,7 @@
         <v>49187.0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2401,13 +2401,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>61.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>49187.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2418,7 +2418,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>67.0</v>
+        <v>64.0</v>
       </c>
       <c r="D5" t="n">
         <v>49187.0</v>
@@ -2435,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>64.0</v>
+        <v>61.0</v>
       </c>
       <c r="D6" t="n">
         <v>49187.0</v>
@@ -2458,7 +2458,7 @@
         <v>49187.0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2486,7 +2486,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>64.0</v>
+        <v>61.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
@@ -2503,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
       <c r="D10" t="n">
         <v>49187.0</v>
@@ -2520,7 +2520,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>67.0</v>
+        <v>64.0</v>
       </c>
       <c r="D11" t="n">
         <v>49187.0</v>
@@ -2571,7 +2571,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>67.0</v>
+        <v>64.0</v>
       </c>
       <c r="D14" t="n">
         <v>49187.0</v>
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>64.0</v>
+        <v>61.0</v>
       </c>
       <c r="D15" t="n">
         <v>49187.0</v>
@@ -2652,13 +2652,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>67.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
         <v>49191.0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2669,13 +2669,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
       <c r="D4" t="n">
         <v>49191.0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2692,7 +2692,7 @@
         <v>49191.0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2709,7 +2709,7 @@
         <v>49191.0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2720,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>64.0</v>
+        <v>61.0</v>
       </c>
       <c r="D7" t="n">
         <v>49191.0</v>
@@ -2737,7 +2737,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
       <c r="D8" t="n">
         <v>49191.0</v>
@@ -2788,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
       <c r="D11" t="n">
         <v>49191.0</v>
@@ -2805,7 +2805,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>67.0</v>
+        <v>64.0</v>
       </c>
       <c r="D12" t="n">
         <v>49191.0</v>
@@ -2856,7 +2856,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>67.0</v>
+        <v>64.0</v>
       </c>
       <c r="D15" t="n">
         <v>49191.0</v>
@@ -3039,13 +3039,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3056,13 +3056,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="D11" t="n">
         <v>49185.0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3124,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="D15" t="n">
         <v>49185.0</v>
@@ -3141,7 +3141,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="D16" t="n">
         <v>49185.0</v>
@@ -3209,7 +3209,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="D20" t="n">
         <v>49185.0</v>
@@ -3226,7 +3226,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="D21" t="n">
         <v>49185.0</v>
@@ -3341,13 +3341,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="D6" t="n">
         <v>49187.0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3381,7 +3381,7 @@
         <v>49187.0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3392,13 +3392,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3409,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="D10" t="n">
         <v>49187.0</v>
@@ -3426,7 +3426,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="D11" t="n">
         <v>49187.0</v>
@@ -3477,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="D14" t="n">
         <v>49187.0</v>
@@ -3494,7 +3494,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D15" t="n">
         <v>49187.0</v>
@@ -3511,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="D16" t="n">
         <v>49187.0</v>
@@ -3551,7 +3551,7 @@
         <v>49187.0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3562,13 +3562,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="D19" t="n">
         <v>49187.0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3579,7 +3579,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="D20" t="n">
         <v>49187.0</v>
@@ -3596,7 +3596,7 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D21" t="n">
         <v>49187.0</v>
@@ -3677,13 +3677,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>49191.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3717,7 +3717,7 @@
         <v>49191.0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3785,7 +3785,7 @@
         <v>49191.0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3796,7 +3796,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="D11" t="n">
         <v>49191.0</v>
@@ -3813,13 +3813,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="D12" t="n">
         <v>49191.0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3864,13 +3864,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="D15" t="n">
         <v>49191.0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3881,13 +3881,13 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="D16" t="n">
         <v>49191.0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -3932,7 +3932,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D19" t="n">
         <v>49191.0</v>
@@ -3949,7 +3949,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="D20" t="n">
         <v>49191.0</v>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -7,17 +7,17 @@
   </bookViews>
   <sheets>
     <sheet name="Group 1 Course 1" r:id="rId3" sheetId="1"/>
-    <sheet name="Group 1 Course 2" r:id="rId4" sheetId="2"/>
-    <sheet name="Group 1 Course 3" r:id="rId5" sheetId="3"/>
-    <sheet name="Group 2 Course 1" r:id="rId6" sheetId="4"/>
+    <sheet name="Group 2 Course 1" r:id="rId4" sheetId="2"/>
+    <sheet name="Group 3 Course 1" r:id="rId5" sheetId="3"/>
+    <sheet name="Group 1 Course 2" r:id="rId6" sheetId="4"/>
     <sheet name="Group 2 Course 2" r:id="rId7" sheetId="5"/>
-    <sheet name="Group 2 Course 3" r:id="rId8" sheetId="6"/>
-    <sheet name="Group 3 Course 1" r:id="rId9" sheetId="7"/>
-    <sheet name="Group 3 Course 2" r:id="rId10" sheetId="8"/>
+    <sheet name="Group 3 Course 2" r:id="rId8" sheetId="6"/>
+    <sheet name="Group 1 Course 3" r:id="rId9" sheetId="7"/>
+    <sheet name="Group 2 Course 3" r:id="rId10" sheetId="8"/>
     <sheet name="Group 3 Course 3" r:id="rId11" sheetId="9"/>
-    <sheet name="Group 4 Course 1" r:id="rId12" sheetId="10"/>
-    <sheet name="Group 4 Course 2" r:id="rId13" sheetId="11"/>
-    <sheet name="Group 4 Course 3" r:id="rId14" sheetId="12"/>
+    <sheet name="Group 1 Course 4" r:id="rId12" sheetId="10"/>
+    <sheet name="Group 2 Course 4" r:id="rId13" sheetId="11"/>
+    <sheet name="Group 3 Course 4" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
@@ -310,7 +310,7 @@
         <v>49185.0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -419,13 +419,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
       <c r="D5" t="n">
         <v>49185.0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>28.0</v>
+        <v>47.0</v>
       </c>
       <c r="D6" t="n">
         <v>49185.0</v>
@@ -476,7 +476,7 @@
         <v>49185.0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -493,7 +493,7 @@
         <v>49185.0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>82.0</v>
+        <v>89.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>58.0</v>
+        <v>65.0</v>
       </c>
       <c r="D11" t="n">
         <v>49185.0</v>
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>89.0</v>
+        <v>30.0</v>
       </c>
       <c r="D15" t="n">
         <v>49185.0</v>
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>65.0</v>
+        <v>27.0</v>
       </c>
       <c r="D16" t="n">
         <v>49185.0</v>
@@ -674,13 +674,13 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" t="n">
         <v>49185.0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -691,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="D21" t="n">
         <v>49185.0</v>
@@ -795,7 +795,7 @@
         <v>49187.0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="D4" t="n">
         <v>49187.0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0</v>
+        <v>58.0</v>
       </c>
       <c r="D5" t="n">
         <v>49187.0</v>
@@ -908,13 +908,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>82.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -925,13 +925,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="D10" t="n">
         <v>49187.0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -942,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>44.0</v>
+        <v>83.0</v>
       </c>
       <c r="D11" t="n">
         <v>49187.0</v>
@@ -982,7 +982,7 @@
         <v>49187.0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -993,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>89.0</v>
+        <v>30.0</v>
       </c>
       <c r="D14" t="n">
         <v>49187.0</v>
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>65.0</v>
+        <v>27.0</v>
       </c>
       <c r="D15" t="n">
         <v>49187.0</v>
@@ -1027,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>83.0</v>
+        <v>12.0</v>
       </c>
       <c r="D16" t="n">
         <v>49187.0</v>
@@ -1078,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="D19" t="n">
         <v>49187.0</v>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="D20" t="n">
         <v>49187.0</v>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>12.0</v>
+        <v>31.0</v>
       </c>
       <c r="D21" t="n">
         <v>49187.0</v>
@@ -1163,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>60.0</v>
+        <v>88.0</v>
       </c>
       <c r="D24" t="n">
         <v>49187.0</v>
@@ -1295,13 +1295,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="D7" t="n">
         <v>49191.0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1312,13 +1312,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
       <c r="D8" t="n">
         <v>49191.0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1335,7 +1335,7 @@
         <v>49191.0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1352,7 +1352,7 @@
         <v>49191.0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1363,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>29.0</v>
+        <v>59.0</v>
       </c>
       <c r="D11" t="n">
         <v>49191.0</v>
@@ -1380,13 +1380,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="D12" t="n">
         <v>49191.0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1431,13 +1431,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>83.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" t="n">
         <v>49191.0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1448,13 +1448,13 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="D16" t="n">
         <v>49191.0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1499,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="D19" t="n">
         <v>49191.0</v>
@@ -1516,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>12.0</v>
+        <v>31.0</v>
       </c>
       <c r="D20" t="n">
         <v>49191.0</v>
@@ -1567,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>60.0</v>
+        <v>88.0</v>
       </c>
       <c r="D23" t="n">
         <v>49191.0</v>
@@ -1584,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>46.0</v>
+        <v>64.0</v>
       </c>
       <c r="D24" t="n">
         <v>49191.0</v>
@@ -1665,13 +1665,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>88.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>49187.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1750,13 +1750,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>96.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1990,7 +1990,7 @@
         <v>49191.0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2139,7 +2139,7 @@
         <v>49185.0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2224,7 +2224,7 @@
         <v>49185.0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2235,13 +2235,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2373,7 +2373,7 @@
         <v>49187.0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2390,7 +2390,7 @@
         <v>49187.0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2401,13 +2401,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="D4" t="n">
         <v>49187.0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2475,7 +2475,7 @@
         <v>49187.0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2692,7 +2692,7 @@
         <v>49191.0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2709,7 +2709,7 @@
         <v>49191.0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2720,13 +2720,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>61.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
         <v>49191.0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3011,7 +3011,7 @@
         <v>49185.0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3028,7 +3028,7 @@
         <v>49185.0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3039,13 +3039,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="D10" t="n">
         <v>49185.0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3056,13 +3056,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
         <v>49185.0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3124,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>52.0</v>
+        <v>39.0</v>
       </c>
       <c r="D15" t="n">
         <v>49185.0</v>
@@ -3141,7 +3141,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="D16" t="n">
         <v>49185.0</v>
@@ -3164,7 +3164,7 @@
         <v>49185.0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3198,7 +3198,7 @@
         <v>49185.0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3209,7 +3209,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="D20" t="n">
         <v>49185.0</v>
@@ -3226,7 +3226,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>52.0</v>
+        <v>39.0</v>
       </c>
       <c r="D21" t="n">
         <v>49185.0</v>
@@ -3341,13 +3341,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
         <v>49187.0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3381,7 +3381,7 @@
         <v>49187.0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3392,13 +3392,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
         <v>49187.0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3409,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>39.0</v>
+        <v>52.0</v>
       </c>
       <c r="D10" t="n">
         <v>49187.0</v>
@@ -3426,13 +3426,13 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
         <v>49187.0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3477,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="D14" t="n">
         <v>49187.0</v>
@@ -3494,13 +3494,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" t="n">
         <v>49187.0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3511,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>39.0</v>
+        <v>52.0</v>
       </c>
       <c r="D16" t="n">
         <v>49187.0</v>
@@ -3562,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>52.0</v>
+        <v>39.0</v>
       </c>
       <c r="D19" t="n">
         <v>49187.0</v>
@@ -3579,7 +3579,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="D20" t="n">
         <v>49187.0</v>
@@ -3596,7 +3596,7 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="D21" t="n">
         <v>49187.0</v>
@@ -3717,7 +3717,7 @@
         <v>49191.0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3728,13 +3728,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="D7" t="n">
         <v>49191.0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3796,7 +3796,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0</v>
+        <v>39.0</v>
       </c>
       <c r="D11" t="n">
         <v>49191.0</v>
@@ -3813,13 +3813,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
         <v>49191.0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3864,7 +3864,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="D15" t="n">
         <v>49191.0</v>
@@ -3881,13 +3881,13 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" t="n">
         <v>49191.0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3932,7 +3932,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="D19" t="n">
         <v>49191.0</v>
@@ -3949,7 +3949,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>39.0</v>
+        <v>52.0</v>
       </c>
       <c r="D20" t="n">
         <v>49191.0</v>
